--- a/Code/Results/Cases/Case_5_160/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_160/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.09918780225175</v>
+        <v>25.00614441910968</v>
       </c>
       <c r="C2">
-        <v>16.67232712170278</v>
+        <v>12.30731053561339</v>
       </c>
       <c r="D2">
-        <v>2.428047114336453</v>
+        <v>4.060659819108812</v>
       </c>
       <c r="E2">
-        <v>5.574136560256618</v>
+        <v>9.760591166727076</v>
       </c>
       <c r="F2">
-        <v>44.28186480403239</v>
+        <v>53.83006190449456</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>28.92122407905298</v>
+        <v>37.56898058156668</v>
       </c>
       <c r="J2">
-        <v>5.721624928604687</v>
+        <v>9.65349555723383</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.981942807984408</v>
+        <v>12.678561840459</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.62811943798597</v>
+        <v>24.74140692267946</v>
       </c>
       <c r="C3">
-        <v>15.46636353148338</v>
+        <v>11.95175431647435</v>
       </c>
       <c r="D3">
-        <v>2.294642333210427</v>
+        <v>4.034675934778834</v>
       </c>
       <c r="E3">
-        <v>5.584229686087537</v>
+        <v>9.769613835736122</v>
       </c>
       <c r="F3">
-        <v>42.9219613150076</v>
+        <v>53.70344327964852</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>28.37449790402209</v>
+        <v>37.55785225907313</v>
       </c>
       <c r="J3">
-        <v>5.769323818297636</v>
+        <v>9.670375217775941</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.80424861281936</v>
+        <v>12.68597716097472</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.69520152138029</v>
+        <v>24.58469654994455</v>
       </c>
       <c r="C4">
-        <v>14.6909906834704</v>
+        <v>11.73228476847309</v>
       </c>
       <c r="D4">
-        <v>2.211433684890868</v>
+        <v>4.018360675747212</v>
       </c>
       <c r="E4">
-        <v>5.591267667234534</v>
+        <v>9.775533184945656</v>
       </c>
       <c r="F4">
-        <v>42.11098743608545</v>
+        <v>53.6380974084358</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>28.06073559280048</v>
+        <v>37.55859009833727</v>
       </c>
       <c r="J4">
-        <v>5.799531135506681</v>
+        <v>9.681314013636113</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.698657786849902</v>
+        <v>12.69273076665188</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.30779711234436</v>
+        <v>24.5223769275508</v>
       </c>
       <c r="C5">
-        <v>14.36610426747677</v>
+        <v>11.64271556975238</v>
       </c>
       <c r="D5">
-        <v>2.177178190824966</v>
+        <v>4.011621337034558</v>
       </c>
       <c r="E5">
-        <v>5.594339712931365</v>
+        <v>9.778040985024914</v>
       </c>
       <c r="F5">
-        <v>41.78659556275225</v>
+        <v>53.61459065031846</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>27.93820527929084</v>
+        <v>37.5607887618199</v>
       </c>
       <c r="J5">
-        <v>5.812078784393006</v>
+        <v>9.685916554616993</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.656525504820675</v>
+        <v>12.69603650654151</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.24304058080044</v>
+        <v>24.51212394373673</v>
       </c>
       <c r="C6">
-        <v>14.31161504072805</v>
+        <v>11.62783935030638</v>
       </c>
       <c r="D6">
-        <v>2.171468614191058</v>
+        <v>4.010496795684405</v>
       </c>
       <c r="E6">
-        <v>5.594861946493413</v>
+        <v>9.778463184749462</v>
       </c>
       <c r="F6">
-        <v>41.73309988339349</v>
+        <v>53.61087601526252</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>27.91817575458676</v>
+        <v>37.56126829473202</v>
       </c>
       <c r="J6">
-        <v>5.814176865792213</v>
+        <v>9.686689566000526</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.649584048042746</v>
+        <v>12.69661886155735</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.69000576452647</v>
+        <v>24.58384975219032</v>
       </c>
       <c r="C7">
-        <v>14.68664541726478</v>
+        <v>11.73107713427301</v>
       </c>
       <c r="D7">
-        <v>2.210973133023705</v>
+        <v>4.018270153979174</v>
       </c>
       <c r="E7">
-        <v>5.591308280993348</v>
+        <v>9.775566618563897</v>
       </c>
       <c r="F7">
-        <v>42.10658785275704</v>
+        <v>53.6377677430326</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>28.05906176728538</v>
+        <v>37.55861207394265</v>
       </c>
       <c r="J7">
-        <v>5.799699385767164</v>
+        <v>9.681375497920248</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.698085926460623</v>
+        <v>12.69277310736525</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.59823226397061</v>
+        <v>24.91369552549676</v>
       </c>
       <c r="C8">
-        <v>16.26366528585788</v>
+        <v>12.18504667118562</v>
       </c>
       <c r="D8">
-        <v>2.382303919246269</v>
+        <v>4.051775543143769</v>
       </c>
       <c r="E8">
-        <v>5.577437409697431</v>
+        <v>9.763623568833102</v>
       </c>
       <c r="F8">
-        <v>43.80800809132086</v>
+        <v>53.78383412554785</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>28.72805021928577</v>
+        <v>37.56356909335558</v>
       </c>
       <c r="J8">
-        <v>5.737884668152927</v>
+        <v>9.659196644569688</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.919951772101927</v>
+        <v>12.68066210169591</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.09932153680313</v>
+        <v>25.60351802926547</v>
       </c>
       <c r="C9">
-        <v>19.08670833936806</v>
+        <v>13.05962207465613</v>
       </c>
       <c r="D9">
-        <v>2.709278770404523</v>
+        <v>4.114613666486785</v>
       </c>
       <c r="E9">
-        <v>5.557298473214351</v>
+        <v>9.743204044116675</v>
       </c>
       <c r="F9">
-        <v>47.33470787472544</v>
+        <v>54.16831647701361</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>30.22246082074047</v>
+        <v>37.63357610836246</v>
       </c>
       <c r="J9">
-        <v>5.623641702848616</v>
+        <v>9.62024497442753</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.382502117835619</v>
+        <v>12.67435775374522</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.67751069101812</v>
+        <v>26.13191586584594</v>
       </c>
       <c r="C10">
-        <v>21.00881254312663</v>
+        <v>13.68462226798599</v>
       </c>
       <c r="D10">
-        <v>2.946372056554374</v>
+        <v>4.159034210943485</v>
       </c>
       <c r="E10">
-        <v>5.54745803956439</v>
+        <v>9.730018175672992</v>
       </c>
       <c r="F10">
-        <v>50.04556908685592</v>
+        <v>54.50993715559531</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>31.44447491400718</v>
+        <v>37.72200093700716</v>
       </c>
       <c r="J10">
-        <v>5.543461166268583</v>
+        <v>9.594369800315228</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.738947335563529</v>
+        <v>12.6803336106378</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.8268323737562</v>
+        <v>26.37597358210042</v>
       </c>
       <c r="C11">
-        <v>21.85352776940156</v>
+        <v>13.963652488355</v>
       </c>
       <c r="D11">
-        <v>3.054248030225186</v>
+        <v>4.178862930283786</v>
       </c>
       <c r="E11">
-        <v>5.544240339049257</v>
+        <v>9.724411289378757</v>
       </c>
       <c r="F11">
-        <v>51.30721640444298</v>
+        <v>54.67799241578483</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>32.03061271270257</v>
+        <v>37.77028858014415</v>
       </c>
       <c r="J11">
-        <v>5.507674727144924</v>
+        <v>9.583188576958577</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.904838296199536</v>
+        <v>12.68534633564183</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.25642484973542</v>
+        <v>26.46883680303258</v>
       </c>
       <c r="C12">
-        <v>22.16945833685826</v>
+        <v>14.06844431505563</v>
       </c>
       <c r="D12">
-        <v>3.095173555133819</v>
+        <v>4.186317023389177</v>
       </c>
       <c r="E12">
-        <v>5.54322189186263</v>
+        <v>9.722344190777147</v>
       </c>
       <c r="F12">
-        <v>51.78939369399723</v>
+        <v>54.74342764874384</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>32.25723904514948</v>
+        <v>37.78973349258629</v>
       </c>
       <c r="J12">
-        <v>5.494210518177301</v>
+        <v>9.579038897800963</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.968219122837422</v>
+        <v>12.68757331588333</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.16414895156805</v>
+        <v>26.44881867511234</v>
       </c>
       <c r="C13">
-        <v>22.10158686207662</v>
+        <v>14.04591590541677</v>
       </c>
       <c r="D13">
-        <v>3.086354866357471</v>
+        <v>4.184714083251882</v>
       </c>
       <c r="E13">
-        <v>5.543431994054679</v>
+        <v>9.722786884873678</v>
       </c>
       <c r="F13">
-        <v>51.68534508251626</v>
+        <v>54.72925550072559</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>32.20821764360402</v>
+        <v>37.78549412880498</v>
       </c>
       <c r="J13">
-        <v>5.497106592030931</v>
+        <v>9.579928857197201</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.954543436605613</v>
+        <v>12.68707909384386</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.86228595030571</v>
+        <v>26.38360509226414</v>
       </c>
       <c r="C14">
-        <v>21.87959661994517</v>
+        <v>13.97229182593235</v>
       </c>
       <c r="D14">
-        <v>3.057613027069684</v>
+        <v>4.179477278696127</v>
       </c>
       <c r="E14">
-        <v>5.544152419945775</v>
+        <v>9.724240104468867</v>
       </c>
       <c r="F14">
-        <v>51.34679453432558</v>
+        <v>54.68333995098673</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>32.04916178923367</v>
+        <v>37.77186509211851</v>
       </c>
       <c r="J14">
-        <v>5.506565339665434</v>
+        <v>9.582845490788619</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.910041239293662</v>
+        <v>12.6855229688011</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.67666366232507</v>
+        <v>26.3437151395019</v>
       </c>
       <c r="C15">
-        <v>21.74311778524644</v>
+        <v>13.92707842933739</v>
       </c>
       <c r="D15">
-        <v>3.040019996085463</v>
+        <v>4.176262466475327</v>
       </c>
       <c r="E15">
-        <v>5.54462037748433</v>
+        <v>9.725137545022843</v>
       </c>
       <c r="F15">
-        <v>51.14000986752998</v>
+        <v>54.65544856359661</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>31.95235396974943</v>
+        <v>37.76366788634284</v>
       </c>
       <c r="J15">
-        <v>5.51237010147404</v>
+        <v>9.584642994626581</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.882856407299094</v>
+        <v>12.68461257580505</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.6015926401036</v>
+        <v>26.11603292349054</v>
       </c>
       <c r="C16">
-        <v>20.95303790170193</v>
+        <v>13.66627091675533</v>
       </c>
       <c r="D16">
-        <v>2.939328398276984</v>
+        <v>4.157730726296388</v>
       </c>
       <c r="E16">
-        <v>5.54769519860653</v>
+        <v>9.73039246002195</v>
       </c>
       <c r="F16">
-        <v>49.9637152308814</v>
+        <v>54.49920702922173</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>31.40680403843976</v>
+        <v>37.71900749689054</v>
       </c>
       <c r="J16">
-        <v>5.545812779128553</v>
+        <v>9.595112350987584</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.728182977839875</v>
+        <v>12.68005209031179</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.93167305142847</v>
+        <v>25.97724005637678</v>
       </c>
       <c r="C17">
-        <v>20.46096634805424</v>
+        <v>13.50483802759895</v>
       </c>
       <c r="D17">
-        <v>2.877609972807037</v>
+        <v>4.146265047277029</v>
       </c>
       <c r="E17">
-        <v>5.54991634417097</v>
+        <v>9.733716305990226</v>
       </c>
       <c r="F17">
-        <v>49.2495799105906</v>
+        <v>54.40658272081218</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>31.0800826610861</v>
+        <v>37.69367523640297</v>
       </c>
       <c r="J17">
-        <v>5.566497177516765</v>
+        <v>9.601685692304565</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.634266943981313</v>
+        <v>12.67784124289607</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.54243025088275</v>
+        <v>25.89776225969422</v>
       </c>
       <c r="C18">
-        <v>20.17512633630907</v>
+        <v>13.41149455387268</v>
       </c>
       <c r="D18">
-        <v>2.842108076022293</v>
+        <v>4.139634686927287</v>
       </c>
       <c r="E18">
-        <v>5.551311040074136</v>
+        <v>9.735664948171181</v>
       </c>
       <c r="F18">
-        <v>48.8414808244293</v>
+        <v>54.35449992927515</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>30.89498523312875</v>
+        <v>37.67986376678986</v>
       </c>
       <c r="J18">
-        <v>5.578459832646971</v>
+        <v>9.605522014766111</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.580599049815969</v>
+        <v>12.67678565019505</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.40995665718302</v>
+        <v>25.87091556736424</v>
       </c>
       <c r="C19">
-        <v>20.0778535969954</v>
+        <v>13.37980918282607</v>
       </c>
       <c r="D19">
-        <v>2.830085228766432</v>
+        <v>4.137383651496298</v>
       </c>
       <c r="E19">
-        <v>5.551802858205564</v>
+        <v>9.736331060165448</v>
       </c>
       <c r="F19">
-        <v>48.70375316108617</v>
+        <v>54.33707100681742</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>30.83279056961741</v>
+        <v>37.67531777583559</v>
       </c>
       <c r="J19">
-        <v>5.582521769811652</v>
+        <v>9.606830472762427</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.562487653570289</v>
+        <v>12.67646537958952</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.00339096200138</v>
+        <v>25.99197897019615</v>
       </c>
       <c r="C20">
-        <v>20.51363721717384</v>
+        <v>13.52207454336581</v>
       </c>
       <c r="D20">
-        <v>2.884179844151192</v>
+        <v>4.147489274761808</v>
       </c>
       <c r="E20">
-        <v>5.549667648184764</v>
+        <v>9.73335866398982</v>
       </c>
       <c r="F20">
-        <v>49.32532433160289</v>
+        <v>54.41631949744021</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>31.11456828264915</v>
+        <v>37.69629334380553</v>
       </c>
       <c r="J20">
-        <v>5.564288584984359</v>
+        <v>9.600980206440767</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.644228101644384</v>
+        <v>12.67805424099444</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.95110032036082</v>
+        <v>26.4027485416209</v>
       </c>
       <c r="C21">
-        <v>21.94490480286339</v>
+        <v>13.99394146899034</v>
       </c>
       <c r="D21">
-        <v>3.066052515914203</v>
+        <v>4.181016938938058</v>
       </c>
       <c r="E21">
-        <v>5.543935214936016</v>
+        <v>9.723811737318872</v>
       </c>
       <c r="F21">
-        <v>51.44611187341302</v>
+        <v>54.69677790434425</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>32.09575080229921</v>
+        <v>37.77583680956083</v>
       </c>
       <c r="J21">
-        <v>5.503784805343297</v>
+        <v>9.581986516905914</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.923097120580241</v>
+        <v>12.68597112773582</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.19142057390552</v>
+        <v>26.67375777348125</v>
       </c>
       <c r="C22">
-        <v>22.85751282279362</v>
+        <v>14.29721364333665</v>
       </c>
       <c r="D22">
-        <v>3.185399271163313</v>
+        <v>4.202610782909631</v>
       </c>
       <c r="E22">
-        <v>5.541366274917755</v>
+        <v>9.717899225924764</v>
       </c>
       <c r="F22">
-        <v>52.85817400268448</v>
+        <v>54.89053159704206</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>32.76441618629312</v>
+        <v>37.83458029917205</v>
       </c>
       <c r="J22">
-        <v>5.464744718661456</v>
+        <v>9.570064866450572</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.108648173391504</v>
+        <v>12.69306093623583</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.53229783064982</v>
+        <v>26.52891030994212</v>
       </c>
       <c r="C23">
-        <v>22.37240487260704</v>
+        <v>14.13585399160813</v>
       </c>
       <c r="D23">
-        <v>3.121629932349733</v>
+        <v>4.191114945756553</v>
       </c>
       <c r="E23">
-        <v>5.542622339619105</v>
+        <v>9.721024986340513</v>
       </c>
       <c r="F23">
-        <v>52.10200797534326</v>
+        <v>54.78617297665297</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>32.4049075552452</v>
+        <v>37.80260979872456</v>
       </c>
       <c r="J23">
-        <v>5.485539371180407</v>
+        <v>9.576382793757872</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.009303311309319</v>
+        <v>12.68910211313447</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.97098008004126</v>
+        <v>25.98531451621566</v>
       </c>
       <c r="C24">
-        <v>20.48983390294636</v>
+        <v>13.51428356797174</v>
       </c>
       <c r="D24">
-        <v>2.881209670223479</v>
+        <v>4.146935921696628</v>
       </c>
       <c r="E24">
-        <v>5.549779718316371</v>
+        <v>9.733520236438824</v>
       </c>
       <c r="F24">
-        <v>49.29107261814445</v>
+        <v>54.41191386048805</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>31.0989688250905</v>
+        <v>37.69510735395384</v>
       </c>
       <c r="J24">
-        <v>5.565286867915216</v>
+        <v>9.601298978341484</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.639723649405552</v>
+        <v>12.67795727338163</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.17840243567271</v>
+        <v>25.41277102371332</v>
       </c>
       <c r="C25">
-        <v>18.35068954599051</v>
+        <v>12.82556824623507</v>
       </c>
       <c r="D25">
-        <v>2.621575542262507</v>
+        <v>4.097920975809901</v>
       </c>
       <c r="E25">
-        <v>5.561930085882957</v>
+        <v>9.748408170706938</v>
       </c>
       <c r="F25">
-        <v>46.36011471863732</v>
+        <v>54.05385976446679</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>29.79738938626632</v>
+        <v>37.60815429206506</v>
       </c>
       <c r="J25">
-        <v>5.653849271610955</v>
+        <v>9.630298954151094</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.254465916164493</v>
+        <v>12.67419775927931</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_160/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_160/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.00614441910968</v>
+        <v>24.09918780225173</v>
       </c>
       <c r="C2">
-        <v>12.30731053561339</v>
+        <v>16.67232712170278</v>
       </c>
       <c r="D2">
-        <v>4.060659819108812</v>
+        <v>2.428047114336501</v>
       </c>
       <c r="E2">
-        <v>9.760591166727076</v>
+        <v>5.57413656025662</v>
       </c>
       <c r="F2">
-        <v>53.83006190449456</v>
+        <v>44.28186480403237</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>37.56898058156668</v>
+        <v>28.92122407905291</v>
       </c>
       <c r="J2">
-        <v>9.65349555723383</v>
+        <v>5.721624928604688</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.678561840459</v>
+        <v>7.981942807984447</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.74140692267946</v>
+        <v>22.62811943798598</v>
       </c>
       <c r="C3">
-        <v>11.95175431647435</v>
+        <v>15.46636353148339</v>
       </c>
       <c r="D3">
-        <v>4.034675934778834</v>
+        <v>2.294642333210672</v>
       </c>
       <c r="E3">
-        <v>9.769613835736122</v>
+        <v>5.584229686087602</v>
       </c>
       <c r="F3">
-        <v>53.70344327964852</v>
+        <v>42.92196131500763</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>37.55785225907313</v>
+        <v>28.37449790402212</v>
       </c>
       <c r="J3">
-        <v>9.670375217775941</v>
+        <v>5.769323818297579</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.68597716097472</v>
+        <v>7.804248612819323</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.58469654994455</v>
+        <v>21.69520152138024</v>
       </c>
       <c r="C4">
-        <v>11.73228476847309</v>
+        <v>14.6909906834704</v>
       </c>
       <c r="D4">
-        <v>4.018360675747212</v>
+        <v>2.211433684890771</v>
       </c>
       <c r="E4">
-        <v>9.775533184945656</v>
+        <v>5.591267667234534</v>
       </c>
       <c r="F4">
-        <v>53.6380974084358</v>
+        <v>42.11098743608548</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>37.55859009833727</v>
+        <v>28.06073559280053</v>
       </c>
       <c r="J4">
-        <v>9.681314013636113</v>
+        <v>5.799531135506814</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.69273076665188</v>
+        <v>7.69865778684995</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24.5223769275508</v>
+        <v>21.30779711234438</v>
       </c>
       <c r="C5">
-        <v>11.64271556975238</v>
+        <v>14.36610426747672</v>
       </c>
       <c r="D5">
-        <v>4.011621337034558</v>
+        <v>2.177178190825036</v>
       </c>
       <c r="E5">
-        <v>9.778040985024914</v>
+        <v>5.594339712931562</v>
       </c>
       <c r="F5">
-        <v>53.61459065031846</v>
+        <v>41.78659556275252</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>37.5607887618199</v>
+        <v>27.938205279291</v>
       </c>
       <c r="J5">
-        <v>9.685916554616993</v>
+        <v>5.812078784393166</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.69603650654151</v>
+        <v>7.656525504820832</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24.51212394373673</v>
+        <v>21.24304058080048</v>
       </c>
       <c r="C6">
-        <v>11.62783935030638</v>
+        <v>14.31161504072801</v>
       </c>
       <c r="D6">
-        <v>4.010496795684405</v>
+        <v>2.171468614191177</v>
       </c>
       <c r="E6">
-        <v>9.778463184749462</v>
+        <v>5.594861946493479</v>
       </c>
       <c r="F6">
-        <v>53.61087601526252</v>
+        <v>41.73309988339368</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>37.56126829473202</v>
+        <v>27.91817575458687</v>
       </c>
       <c r="J6">
-        <v>9.686689566000526</v>
+        <v>5.814176865792209</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.69661886155735</v>
+        <v>7.649584048042783</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24.58384975219032</v>
+        <v>21.69000576452645</v>
       </c>
       <c r="C7">
-        <v>11.73107713427301</v>
+        <v>14.68664541726485</v>
       </c>
       <c r="D7">
-        <v>4.018270153979174</v>
+        <v>2.210973133023793</v>
       </c>
       <c r="E7">
-        <v>9.775566618563897</v>
+        <v>5.591308280993218</v>
       </c>
       <c r="F7">
-        <v>53.6377677430326</v>
+        <v>42.10658785275715</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>37.55861207394265</v>
+        <v>28.0590617672854</v>
       </c>
       <c r="J7">
-        <v>9.681375497920248</v>
+        <v>5.799699385766973</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.69277310736525</v>
+        <v>7.698085926460502</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.91369552549676</v>
+        <v>23.59823226397057</v>
       </c>
       <c r="C8">
-        <v>12.18504667118562</v>
+        <v>16.26366528585785</v>
       </c>
       <c r="D8">
-        <v>4.051775543143769</v>
+        <v>2.382303919246099</v>
       </c>
       <c r="E8">
-        <v>9.763623568833102</v>
+        <v>5.577437409697298</v>
       </c>
       <c r="F8">
-        <v>53.78383412554785</v>
+        <v>43.80800809132077</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>37.56356909335558</v>
+        <v>28.72805021928571</v>
       </c>
       <c r="J8">
-        <v>9.659196644569688</v>
+        <v>5.737884668152927</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.68066210169591</v>
+        <v>7.919951772101889</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.60351802926547</v>
+        <v>27.0993215368031</v>
       </c>
       <c r="C9">
-        <v>13.05962207465613</v>
+        <v>19.08670833936803</v>
       </c>
       <c r="D9">
-        <v>4.114613666486785</v>
+        <v>2.709278770404359</v>
       </c>
       <c r="E9">
-        <v>9.743204044116675</v>
+        <v>5.557298473214154</v>
       </c>
       <c r="F9">
-        <v>54.16831647701361</v>
+        <v>47.33470787472527</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>37.63357610836246</v>
+        <v>30.22246082074027</v>
       </c>
       <c r="J9">
-        <v>9.62024497442753</v>
+        <v>5.623641702848594</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.67435775374522</v>
+        <v>8.382502117835589</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.13191586584594</v>
+        <v>29.67751069101802</v>
       </c>
       <c r="C10">
-        <v>13.68462226798599</v>
+        <v>21.00881254312648</v>
       </c>
       <c r="D10">
-        <v>4.159034210943485</v>
+        <v>2.946372056554327</v>
       </c>
       <c r="E10">
-        <v>9.730018175672992</v>
+        <v>5.547458039564454</v>
       </c>
       <c r="F10">
-        <v>54.50993715559531</v>
+        <v>50.0455690868561</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>37.72200093700716</v>
+        <v>31.44447491400739</v>
       </c>
       <c r="J10">
-        <v>9.594369800315228</v>
+        <v>5.543461166268707</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.6803336106378</v>
+        <v>8.738947335563564</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.37597358210042</v>
+        <v>30.82683237375618</v>
       </c>
       <c r="C11">
-        <v>13.963652488355</v>
+        <v>21.85352776940153</v>
       </c>
       <c r="D11">
-        <v>4.178862930283786</v>
+        <v>3.054248030225084</v>
       </c>
       <c r="E11">
-        <v>9.724411289378757</v>
+        <v>5.544240339049193</v>
       </c>
       <c r="F11">
-        <v>54.67799241578483</v>
+        <v>51.3072164044431</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>37.77028858014415</v>
+        <v>32.03061271270272</v>
       </c>
       <c r="J11">
-        <v>9.583188576958577</v>
+        <v>5.507674727144989</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.68534633564183</v>
+        <v>8.90483829619955</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.46883680303258</v>
+        <v>31.25642484973545</v>
       </c>
       <c r="C12">
-        <v>14.06844431505563</v>
+        <v>22.16945833685824</v>
       </c>
       <c r="D12">
-        <v>4.186317023389177</v>
+        <v>3.095173555133773</v>
       </c>
       <c r="E12">
-        <v>9.722344190777147</v>
+        <v>5.543221891862562</v>
       </c>
       <c r="F12">
-        <v>54.74342764874384</v>
+        <v>51.78939369399731</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>37.78973349258629</v>
+        <v>32.25723904514957</v>
       </c>
       <c r="J12">
-        <v>9.579038897800963</v>
+        <v>5.494210518177304</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.68757331588333</v>
+        <v>8.968219122837402</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.44881867511234</v>
+        <v>31.16414895156812</v>
       </c>
       <c r="C13">
-        <v>14.04591590541677</v>
+        <v>22.1015868620767</v>
       </c>
       <c r="D13">
-        <v>4.184714083251882</v>
+        <v>3.086354866357582</v>
       </c>
       <c r="E13">
-        <v>9.722786884873678</v>
+        <v>5.543431994054814</v>
       </c>
       <c r="F13">
-        <v>54.72925550072559</v>
+        <v>51.68534508251622</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>37.78549412880498</v>
+        <v>32.20821764360396</v>
       </c>
       <c r="J13">
-        <v>9.579928857197201</v>
+        <v>5.497106592030931</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.68707909384386</v>
+        <v>8.954543436605602</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.38360509226414</v>
+        <v>30.86228595030581</v>
       </c>
       <c r="C14">
-        <v>13.97229182593235</v>
+        <v>21.87959661994515</v>
       </c>
       <c r="D14">
-        <v>4.179477278696127</v>
+        <v>3.057613027069768</v>
       </c>
       <c r="E14">
-        <v>9.724240104468867</v>
+        <v>5.544152419945844</v>
       </c>
       <c r="F14">
-        <v>54.68333995098673</v>
+        <v>51.34679453432586</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>37.77186509211851</v>
+        <v>32.04916178923382</v>
       </c>
       <c r="J14">
-        <v>9.582845490788619</v>
+        <v>5.506565339665415</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.6855229688011</v>
+        <v>8.910041239293667</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.3437151395019</v>
+        <v>30.67666366232502</v>
       </c>
       <c r="C15">
-        <v>13.92707842933739</v>
+        <v>21.74311778524636</v>
       </c>
       <c r="D15">
-        <v>4.176262466475327</v>
+        <v>3.040019996085305</v>
       </c>
       <c r="E15">
-        <v>9.725137545022843</v>
+        <v>5.544620377484198</v>
       </c>
       <c r="F15">
-        <v>54.65544856359661</v>
+        <v>51.14000986752998</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>37.76366788634284</v>
+        <v>31.95235396974948</v>
       </c>
       <c r="J15">
-        <v>9.584642994626581</v>
+        <v>5.512370101474009</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.68461257580505</v>
+        <v>8.8828564072991</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.11603292349054</v>
+        <v>29.6015926401036</v>
       </c>
       <c r="C16">
-        <v>13.66627091675533</v>
+        <v>20.95303790170174</v>
       </c>
       <c r="D16">
-        <v>4.157730726296388</v>
+        <v>2.939328398276853</v>
       </c>
       <c r="E16">
-        <v>9.73039246002195</v>
+        <v>5.547695198606266</v>
       </c>
       <c r="F16">
-        <v>54.49920702922173</v>
+        <v>49.96371523088145</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>37.71900749689054</v>
+        <v>31.40680403843981</v>
       </c>
       <c r="J16">
-        <v>9.595112350987584</v>
+        <v>5.545812779128396</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.68005209031179</v>
+        <v>8.728182977839868</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.97724005637678</v>
+        <v>28.93167305142854</v>
       </c>
       <c r="C17">
-        <v>13.50483802759895</v>
+        <v>20.46096634805443</v>
       </c>
       <c r="D17">
-        <v>4.146265047277029</v>
+        <v>2.877609972807261</v>
       </c>
       <c r="E17">
-        <v>9.733716305990226</v>
+        <v>5.549916344171103</v>
       </c>
       <c r="F17">
-        <v>54.40658272081218</v>
+        <v>49.24957991059068</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>37.69367523640297</v>
+        <v>31.08008266108615</v>
       </c>
       <c r="J17">
-        <v>9.601685692304565</v>
+        <v>5.566497177516743</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.67784124289607</v>
+        <v>8.634266943981251</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.89776225969422</v>
+        <v>28.54243025088279</v>
       </c>
       <c r="C18">
-        <v>13.41149455387268</v>
+        <v>20.17512633630898</v>
       </c>
       <c r="D18">
-        <v>4.139634686927287</v>
+        <v>2.842108076022098</v>
       </c>
       <c r="E18">
-        <v>9.735664948171181</v>
+        <v>5.551311040074072</v>
       </c>
       <c r="F18">
-        <v>54.35449992927515</v>
+        <v>48.84148082442934</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>37.67986376678986</v>
+        <v>30.89498523312878</v>
       </c>
       <c r="J18">
-        <v>9.605522014766111</v>
+        <v>5.578459832647034</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.67678565019505</v>
+        <v>8.580599049816005</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.87091556736424</v>
+        <v>28.40995665718303</v>
       </c>
       <c r="C19">
-        <v>13.37980918282607</v>
+        <v>20.07785359699563</v>
       </c>
       <c r="D19">
-        <v>4.137383651496298</v>
+        <v>2.830085228766618</v>
       </c>
       <c r="E19">
-        <v>9.736331060165448</v>
+        <v>5.551802858205565</v>
       </c>
       <c r="F19">
-        <v>54.33707100681742</v>
+        <v>48.70375316108623</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>37.67531777583559</v>
+        <v>30.83279056961748</v>
       </c>
       <c r="J19">
-        <v>9.606830472762427</v>
+        <v>5.58252176981163</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.67646537958952</v>
+        <v>8.56248765357023</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.99197897019615</v>
+        <v>29.00339096200141</v>
       </c>
       <c r="C20">
-        <v>13.52207454336581</v>
+        <v>20.51363721717383</v>
       </c>
       <c r="D20">
-        <v>4.147489274761808</v>
+        <v>2.884179844151099</v>
       </c>
       <c r="E20">
-        <v>9.73335866398982</v>
+        <v>5.549667648184832</v>
       </c>
       <c r="F20">
-        <v>54.41631949744021</v>
+        <v>49.32532433160289</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>37.69629334380553</v>
+        <v>31.11456828264914</v>
       </c>
       <c r="J20">
-        <v>9.600980206440767</v>
+        <v>5.56428858498453</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.67805424099444</v>
+        <v>8.644228101644424</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.4027485416209</v>
+        <v>30.95110032036083</v>
       </c>
       <c r="C21">
-        <v>13.99394146899034</v>
+        <v>21.94490480286352</v>
       </c>
       <c r="D21">
-        <v>4.181016938938058</v>
+        <v>3.066052515914519</v>
       </c>
       <c r="E21">
-        <v>9.723811737318872</v>
+        <v>5.543935214936209</v>
       </c>
       <c r="F21">
-        <v>54.69677790434425</v>
+        <v>51.44611187341319</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>37.77583680956083</v>
+        <v>32.09575080229931</v>
       </c>
       <c r="J21">
-        <v>9.581986516905914</v>
+        <v>5.503784805343242</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.68597112773582</v>
+        <v>8.923097120580225</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.67375777348125</v>
+        <v>32.19142057390548</v>
       </c>
       <c r="C22">
-        <v>14.29721364333665</v>
+        <v>22.85751282279357</v>
       </c>
       <c r="D22">
-        <v>4.202610782909631</v>
+        <v>3.185399271163192</v>
       </c>
       <c r="E22">
-        <v>9.717899225924764</v>
+        <v>5.541366274917692</v>
       </c>
       <c r="F22">
-        <v>54.89053159704206</v>
+        <v>52.85817400268458</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>37.83458029917205</v>
+        <v>32.76441618629322</v>
       </c>
       <c r="J22">
-        <v>9.570064866450572</v>
+        <v>5.464744718661431</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.69306093623583</v>
+        <v>9.108648173391503</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.52891030994212</v>
+        <v>31.53229783064986</v>
       </c>
       <c r="C23">
-        <v>14.13585399160813</v>
+        <v>22.37240487260708</v>
       </c>
       <c r="D23">
-        <v>4.191114945756553</v>
+        <v>3.121629932349882</v>
       </c>
       <c r="E23">
-        <v>9.721024986340513</v>
+        <v>5.542622339619239</v>
       </c>
       <c r="F23">
-        <v>54.78617297665297</v>
+        <v>52.10200797534333</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>37.80260979872456</v>
+        <v>32.40490755524527</v>
       </c>
       <c r="J23">
-        <v>9.576382793757872</v>
+        <v>5.485539371180506</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.68910211313447</v>
+        <v>9.009303311309319</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.98531451621566</v>
+        <v>28.97098008004122</v>
       </c>
       <c r="C24">
-        <v>13.51428356797174</v>
+        <v>20.48983390294641</v>
       </c>
       <c r="D24">
-        <v>4.146935921696628</v>
+        <v>2.881209670223515</v>
       </c>
       <c r="E24">
-        <v>9.733520236438824</v>
+        <v>5.549779718316376</v>
       </c>
       <c r="F24">
-        <v>54.41191386048805</v>
+        <v>49.29107261814458</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>37.69510735395384</v>
+        <v>31.09896882509062</v>
       </c>
       <c r="J24">
-        <v>9.601298978341484</v>
+        <v>5.565286867915184</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.67795727338163</v>
+        <v>8.639723649405507</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.41277102371332</v>
+        <v>26.17840243567272</v>
       </c>
       <c r="C25">
-        <v>12.82556824623507</v>
+        <v>18.35068954599039</v>
       </c>
       <c r="D25">
-        <v>4.097920975809901</v>
+        <v>2.621575542262391</v>
       </c>
       <c r="E25">
-        <v>9.748408170706938</v>
+        <v>5.561930085882894</v>
       </c>
       <c r="F25">
-        <v>54.05385976446679</v>
+        <v>46.36011471863747</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>37.60815429206506</v>
+        <v>29.79738938626653</v>
       </c>
       <c r="J25">
-        <v>9.630298954151094</v>
+        <v>5.653849271610956</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.67419775927931</v>
+        <v>8.254465916164468</v>
       </c>
       <c r="M25">
         <v>0</v>
